--- a/xls/vistosi/result/vistosi_aumentato.xlsx
+++ b/xls/vistosi/result/vistosi_aumentato.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32" count="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1641" count="1641">
   <x:si>
     <x:t>supplier</x:t>
   </x:si>

--- a/xls/vistosi/result/vistosi_aumentato.xlsx
+++ b/xls/vistosi/result/vistosi_aumentato.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1641" count="1641">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18710" count="18710">
   <x:si>
     <x:t>supplier</x:t>
   </x:si>
